--- a/Data/03 RKM Çapraz Kontroller.xlsx
+++ b/Data/03 RKM Çapraz Kontroller.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR995693\Desktop\Aura Otomasyon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\Processes\RKM03\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F35D2-EA97-411E-AEA1-58F519F1C884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E807005-C43F-4992-8D21-0CCE922C5D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="04 Alt Süreçler" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Alternatif Dağıtım Kanalları Süreci</t>
   </si>
@@ -233,6 +233,39 @@
   </si>
   <si>
     <t>DİĞR</t>
+  </si>
+  <si>
+    <t>Alternatif Dağıtım Kanalları</t>
+  </si>
+  <si>
+    <t>Bireysel Krediler</t>
+  </si>
+  <si>
+    <t>Kurumsal Krediler</t>
+  </si>
+  <si>
+    <t>Finansal Raporlama</t>
+  </si>
+  <si>
+    <t>Hazine, Menkul Kıymetler ve Fon Yönetimi</t>
+  </si>
+  <si>
+    <t>Banka ve Kredi Kartları</t>
+  </si>
+  <si>
+    <t>Muhasebe</t>
+  </si>
+  <si>
+    <t>Mevduat</t>
+  </si>
+  <si>
+    <t>Ödeme Sistemleri</t>
+  </si>
+  <si>
+    <t>Süreç</t>
+  </si>
+  <si>
+    <t>Süreç Kodu</t>
   </si>
 </sst>
 </file>
@@ -669,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -1004,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D72883-740C-4BF0-B344-225C75D1E46E}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,83 +1049,91 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>67</v>
       </c>
     </row>
